--- a/src/Data/Scalability/CluStream/CluStream-MaxSpeedup.xlsx
+++ b/src/Data/Scalability/CluStream/CluStream-MaxSpeedup.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Documents/ISCAS/StreamingML/document/clustering/streamclustering/TestResult/pic/0513MaxSpeedup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/Scalability/CluStream/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40180" yWindow="4280" windowWidth="11520" windowHeight="11260"/>
+    <workbookView xWindow="40180" yWindow="4280" windowWidth="23820" windowHeight="15340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,18 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>KDD99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoverType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KDD98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,6 +53,18 @@
   </si>
   <si>
     <t>p=32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large-KDD99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large-CoverType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large-KDD98</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,25 +480,30 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -512,7 +517,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1.9020886718574752</v>
@@ -526,7 +531,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3.6733104576247553</v>
@@ -540,7 +545,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>5.7214007513873471</v>
@@ -554,7 +559,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>7.2551711495166264</v>
@@ -568,7 +573,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>8.8064301215795222</v>
